--- a/creeper_excel/juejinBook.xlsx
+++ b/creeper_excel/juejinBook.xlsx
@@ -1662,8 +1662,8 @@
   <cols>
     <col min="1" max="1" width="45" style="1" customWidth="1"/>
     <col min="2" max="2" width="120" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
